--- a/biology/Médecine/Prix_Wolf_de_médecine/Prix_Wolf_de_médecine.xlsx
+++ b/biology/Médecine/Prix_Wolf_de_médecine/Prix_Wolf_de_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Wolf_de_m%C3%A9decine</t>
+          <t>Prix_Wolf_de_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Wolf de médecine est remis annuellement par la fondation Wolf, en Israël. C'est l'un des six prix Wolf remis depuis 1978, les autres étant ceux en agriculture, mathématiques, physique, chimie et art.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Wolf_de_m%C3%A9decine</t>
+          <t>Prix_Wolf_de_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1978 : George Snell, Jean Dausset, Jon van Rood
 1979 : Roger Sperry, Arvid Carlsson, Oleh Hornykiewicz
@@ -545,7 +559,7 @@
 2012 : Ronald Evans
 2013 : non décerné
 2014 : Nahum Sonenberg, Gary Ruvkun, Victor Ambros
-2015 : John Kappler, Philippa Marrack et Jeffrey Ravetch[1]
+2015 : John Kappler, Philippa Marrack et Jeffrey Ravetch
 2016 : C. Ronald Kahn, Lewis C. Cantley
 2017 : James Allison
 2018 : non décerné
